--- a/error_counts/biodivner/Meta-Llama-3.1-70B-Instruct/random_4_parsed_output/tokens_potential.xlsx
+++ b/error_counts/biodivner/Meta-Llama-3.1-70B-Instruct/random_4_parsed_output/tokens_potential.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C531"/>
+  <dimension ref="A1:C532"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2718,7 +2718,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t xml:space="preserve"> produktivity</t>
+          <t>produktivity</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
@@ -8028,12 +8028,12 @@
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>groups</t>
+          <t>target group</t>
         </is>
       </c>
       <c r="B507" t="inlineStr">
         <is>
-          <t>ENVIRONMENT</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C507" t="n">
@@ -8043,12 +8043,12 @@
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>ant–hemipteran interactions</t>
+          <t>groups</t>
         </is>
       </c>
       <c r="B508" t="inlineStr">
         <is>
-          <t>PHENOMENA</t>
+          <t>ENVIRONMENT</t>
         </is>
       </c>
       <c r="C508" t="n">
@@ -8058,12 +8058,12 @@
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>German Centre for Integrative Biodiversity Research</t>
+          <t>ant–hemipteran interactions</t>
         </is>
       </c>
       <c r="B509" t="inlineStr">
         <is>
-          <t>ENVIRONMENT</t>
+          <t>PHENOMENA</t>
         </is>
       </c>
       <c r="C509" t="n">
@@ -8073,7 +8073,7 @@
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>iDiv</t>
+          <t>German Centre for Integrative Biodiversity Research</t>
         </is>
       </c>
       <c r="B510" t="inlineStr">
@@ -8088,12 +8088,12 @@
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>Alexandra-Maria Klein</t>
+          <t>iDiv</t>
         </is>
       </c>
       <c r="B511" t="inlineStr">
         <is>
-          <t>ORGANISM</t>
+          <t>ENVIRONMENT</t>
         </is>
       </c>
       <c r="C511" t="n">
@@ -8103,12 +8103,12 @@
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>Institute of Ecology and Environmental Chemistry</t>
+          <t>Alexandra-Maria Klein</t>
         </is>
       </c>
       <c r="B512" t="inlineStr">
         <is>
-          <t>ENVIRONMENT</t>
+          <t>ORGANISM</t>
         </is>
       </c>
       <c r="C512" t="n">
@@ -8118,7 +8118,7 @@
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>Section Ecosystem Functions</t>
+          <t>Institute of Ecology and Environmental Chemistry</t>
         </is>
       </c>
       <c r="B513" t="inlineStr">
@@ -8133,12 +8133,12 @@
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>bacterial diversity</t>
+          <t>Section Ecosystem Functions</t>
         </is>
       </c>
       <c r="B514" t="inlineStr">
         <is>
-          <t>ORGANISM</t>
+          <t>ENVIRONMENT</t>
         </is>
       </c>
       <c r="C514" t="n">
@@ -8148,12 +8148,12 @@
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>carbon cycling</t>
+          <t>bacterial diversity</t>
         </is>
       </c>
       <c r="B515" t="inlineStr">
         <is>
-          <t>PHENOMENA</t>
+          <t>ORGANISM</t>
         </is>
       </c>
       <c r="C515" t="n">
@@ -8163,12 +8163,12 @@
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>saline soils</t>
+          <t>carbon cycling</t>
         </is>
       </c>
       <c r="B516" t="inlineStr">
         <is>
-          <t>ENVIRONMENT</t>
+          <t>PHENOMENA</t>
         </is>
       </c>
       <c r="C516" t="n">
@@ -8178,7 +8178,7 @@
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>community metrics</t>
+          <t>saline soils</t>
         </is>
       </c>
       <c r="B517" t="inlineStr">
@@ -8193,12 +8193,12 @@
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>Crematogaster cf</t>
+          <t>community metrics</t>
         </is>
       </c>
       <c r="B518" t="inlineStr">
         <is>
-          <t>ORGANISM</t>
+          <t>ENVIRONMENT</t>
         </is>
       </c>
       <c r="C518" t="n">
@@ -8208,12 +8208,12 @@
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>barcode data</t>
+          <t>Crematogaster cf</t>
         </is>
       </c>
       <c r="B519" t="inlineStr">
         <is>
-          <t>MATTER</t>
+          <t>ORGANISM</t>
         </is>
       </c>
       <c r="C519" t="n">
@@ -8223,12 +8223,12 @@
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>adult genitalia variation</t>
+          <t>barcode data</t>
         </is>
       </c>
       <c r="B520" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>MATTER</t>
         </is>
       </c>
       <c r="C520" t="n">
@@ -8238,12 +8238,12 @@
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>caterpillar ecology</t>
+          <t>adult genitalia variation</t>
         </is>
       </c>
       <c r="B521" t="inlineStr">
         <is>
-          <t>PHENOMENA</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C521" t="n">
@@ -8253,22 +8253,22 @@
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>vegetation_class</t>
+          <t>caterpillar ecology</t>
         </is>
       </c>
       <c r="B522" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>PHENOMENA</t>
         </is>
       </c>
       <c r="C522" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>Vegetation Class</t>
+          <t>vegetation_class</t>
         </is>
       </c>
       <c r="B523" t="inlineStr">
@@ -8277,13 +8277,13 @@
         </is>
       </c>
       <c r="C523" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>ppm</t>
+          <t>Vegetation Class</t>
         </is>
       </c>
       <c r="B524" t="inlineStr">
@@ -8298,12 +8298,12 @@
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>Kruckeberg</t>
+          <t>ppm</t>
         </is>
       </c>
       <c r="B525" t="inlineStr">
         <is>
-          <t>ORGANISM</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C525" t="n">
@@ -8313,12 +8313,12 @@
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>North Atlantic</t>
+          <t>Kruckeberg</t>
         </is>
       </c>
       <c r="B526" t="inlineStr">
         <is>
-          <t>LOCATION</t>
+          <t>ORGANISM</t>
         </is>
       </c>
       <c r="C526" t="n">
@@ -8328,12 +8328,12 @@
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>fine soft sediment substrate</t>
+          <t>North Atlantic</t>
         </is>
       </c>
       <c r="B527" t="inlineStr">
         <is>
-          <t>ENVIRONMENT</t>
+          <t>LOCATION</t>
         </is>
       </c>
       <c r="C527" t="n">
@@ -8343,7 +8343,7 @@
     <row r="528">
       <c r="A528" t="inlineStr">
         <is>
-          <t>flat terraces</t>
+          <t>fine soft sediment substrate</t>
         </is>
       </c>
       <c r="B528" t="inlineStr">
@@ -8358,7 +8358,7 @@
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>slopes</t>
+          <t>flat terraces</t>
         </is>
       </c>
       <c r="B529" t="inlineStr">
@@ -8373,7 +8373,7 @@
     <row r="530">
       <c r="A530" t="inlineStr">
         <is>
-          <t>ridge</t>
+          <t>slopes</t>
         </is>
       </c>
       <c r="B530" t="inlineStr">
@@ -8388,15 +8388,30 @@
     <row r="531">
       <c r="A531" t="inlineStr">
         <is>
+          <t>ridge</t>
+        </is>
+      </c>
+      <c r="B531" t="inlineStr">
+        <is>
+          <t>ENVIRONMENT</t>
+        </is>
+      </c>
+      <c r="C531" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" t="inlineStr">
+        <is>
           <t>soil layers</t>
         </is>
       </c>
-      <c r="B531" t="inlineStr">
-        <is>
-          <t>ENVIRONMENT</t>
-        </is>
-      </c>
-      <c r="C531" t="n">
+      <c r="B532" t="inlineStr">
+        <is>
+          <t>ENVIRONMENT</t>
+        </is>
+      </c>
+      <c r="C532" t="n">
         <v>1</v>
       </c>
     </row>
